--- a/data/IEEE9/Market Data/ieee9_market_data_2055.xlsx
+++ b/data/IEEE9/Market Data/ieee9_market_data_2055.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\Market Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADD2231-4F30-4278-9F90-70D1A08AF18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF8BC95-BFC4-4436-BEFC-B5DEC0264BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="3675" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12645" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>5.0000000000000001E-3</v>
+            <v>0.01</v>
           </cell>
         </row>
         <row r="5">
@@ -1325,23 +1325,24 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
@@ -1355,7 +1356,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1363,7 +1364,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1371,16 +1372,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <f>(1+[1]Main!$B$4)^($B$3-[1]Main!$B$1)</f>
-        <v>1.1614000828953406</v>
+        <v>1.3478489153329063</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1399,13 +1400,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E73F7F-45E0-423B-A01B-B6DF6F75CAB7}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1482,310 +1483,310 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Winter'!B2*Scenarios!$B$6</f>
-        <v>50.764797623355335</v>
+        <v>58.914476089201337</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Winter'!C2*Scenarios!$B$6</f>
-        <v>47.367702380886463</v>
+        <v>54.972018011852576</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Winter'!D2*Scenarios!$B$6</f>
-        <v>45.355576737270283</v>
+        <v>52.636869766038316</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Winter'!E2*Scenarios!$B$6</f>
-        <v>42.533374535834611</v>
+        <v>49.361596901779365</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Winter'!F2*Scenarios!$B$6</f>
-        <v>43.802204126397775</v>
+        <v>50.834121841780565</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Winter'!G2*Scenarios!$B$6</f>
-        <v>47.32124637757066</v>
+        <v>54.918104055239276</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Winter'!H2*Scenarios!$B$6</f>
-        <v>57.251217086325816</v>
+        <v>66.442212281335614</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Winter'!I2*Scenarios!$B$6</f>
-        <v>59.916630276570622</v>
+        <v>69.535525542024644</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Winter'!J2*Scenarios!$B$6</f>
-        <v>63.005954497072224</v>
+        <v>73.120803656810168</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Winter'!K2*Scenarios!$B$6</f>
-        <v>62.5268769628779</v>
+        <v>72.564815979235334</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Winter'!L2*Scenarios!$B$6</f>
-        <v>61.321924376873987</v>
+        <v>71.166422729577462</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Winter'!M2*Scenarios!$B$6</f>
-        <v>61.022863855528428</v>
+        <v>70.819351633879222</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Winter'!N2*Scenarios!$B$6</f>
-        <v>58.659414686836406</v>
+        <v>68.076479091176751</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Winter'!O2*Scenarios!$B$6</f>
-        <v>57.831917127773487</v>
+        <v>67.116136739002073</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Winter'!P2*Scenarios!$B$6</f>
-        <v>56.69664854674329</v>
+        <v>65.798614424264159</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Winter'!Q2*Scenarios!$B$6</f>
-        <v>56.809885054825585</v>
+        <v>65.930029693509113</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Winter'!R2*Scenarios!$B$6</f>
-        <v>57.686742117411569</v>
+        <v>66.947655624585451</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Winter'!S2*Scenarios!$B$6</f>
-        <v>60.537979320919625</v>
+        <v>70.256624711727738</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Winter'!T2*Scenarios!$B$6</f>
-        <v>63.435672527743506</v>
+        <v>73.619507755483355</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Winter'!U2*Scenarios!$B$6</f>
-        <v>63.923460562559555</v>
+        <v>74.18560429992317</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Winter'!V2*Scenarios!$B$6</f>
-        <v>62.448482457282459</v>
+        <v>72.473836177450366</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Winter'!W2*Scenarios!$B$6</f>
-        <v>58.525853677303445</v>
+        <v>67.921476465913472</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Winter'!X2*Scenarios!$B$6</f>
-        <v>52.823379270287333</v>
+        <v>61.303538291628911</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Winter'!Y2*Scenarios!$B$6</f>
-        <v>49.580169538802089</v>
+        <v>57.539670195561769</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Winter'!B3*Scenarios!$B$6</f>
-        <v>47.408351383787803</v>
+        <v>55.019192723889233</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Winter'!C3*Scenarios!$B$6</f>
-        <v>44.748745193957475</v>
+        <v>51.932618707776882</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Winter'!D3*Scenarios!$B$6</f>
-        <v>41.851051987133594</v>
+        <v>48.569735664021273</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Winter'!E3*Scenarios!$B$6</f>
-        <v>39.981197853672093</v>
+        <v>46.399698910335296</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Winter'!F3*Scenarios!$B$6</f>
-        <v>42.205279012416682</v>
+        <v>48.980829583197817</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Winter'!G3*Scenarios!$B$6</f>
-        <v>44.45839517323364</v>
+        <v>51.595656478943653</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Winter'!H3*Scenarios!$B$6</f>
-        <v>51.333883663974056</v>
+        <v>59.57492205771446</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Winter'!I3*Scenarios!$B$6</f>
-        <v>53.621841827277876</v>
+        <v>62.230184420920288</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Winter'!J3*Scenarios!$B$6</f>
-        <v>56.304676018766116</v>
+        <v>65.343715415339304</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Winter'!K3*Scenarios!$B$6</f>
-        <v>56.682131045707095</v>
+        <v>65.781766312822498</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Winter'!L3*Scenarios!$B$6</f>
-        <v>55.050363929239147</v>
+        <v>63.888038586779764</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Winter'!M3*Scenarios!$B$6</f>
-        <v>53.917998848416183</v>
+        <v>62.573885894330168</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Winter'!N3*Scenarios!$B$6</f>
-        <v>52.2688107307048</v>
+        <v>60.659940434557441</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Winter'!O3*Scenarios!$B$6</f>
-        <v>51.71714569132952</v>
+        <v>60.019712199774318</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Winter'!P3*Scenarios!$B$6</f>
-        <v>49.411766526782266</v>
+        <v>57.344232102838504</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Winter'!Q3*Scenarios!$B$6</f>
-        <v>49.022697499012324</v>
+        <v>56.892702716201974</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Winter'!R3*Scenarios!$B$6</f>
-        <v>50.033115571131269</v>
+        <v>58.065331272541599</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Winter'!S3*Scenarios!$B$6</f>
-        <v>55.166503937528681</v>
+        <v>64.022823478313043</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Winter'!T3*Scenarios!$B$6</f>
-        <v>57.756426122385292</v>
+        <v>67.028526559505437</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Winter'!U3*Scenarios!$B$6</f>
-        <v>58.66231818704366</v>
+        <v>68.079848713465097</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Winter'!V3*Scenarios!$B$6</f>
-        <v>58.987510210254349</v>
+        <v>68.457246409758312</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Winter'!W3*Scenarios!$B$6</f>
-        <v>56.368553023325354</v>
+        <v>65.417847105682597</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Winter'!X3*Scenarios!$B$6</f>
-        <v>51.049340643664692</v>
+        <v>59.244699073457895</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Winter'!Y3*Scenarios!$B$6</f>
-        <v>48.441997457564653</v>
+        <v>56.218778258535522</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Winter'!B4*Scenarios!$B$6</f>
-        <v>54.121243862922874</v>
+        <v>62.809759454513433</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Winter'!C4*Scenarios!$B$6</f>
-        <v>49.986659567815458</v>
+        <v>58.011417315928284</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Winter'!D4*Scenarios!$B$6</f>
-        <v>48.860101487406979</v>
+        <v>56.704003868055366</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Winter'!E4*Scenarios!$B$6</f>
-        <v>45.085551217997121</v>
+        <v>52.323494893223426</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Winter'!F4*Scenarios!$B$6</f>
-        <v>45.399129240378869</v>
+        <v>52.687414100363313</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Winter'!G4*Scenarios!$B$6</f>
-        <v>50.184097581907665</v>
+        <v>58.240551631534885</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Winter'!H4*Scenarios!$B$6</f>
-        <v>63.168550508677576</v>
+        <v>73.309502504956768</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Winter'!I4*Scenarios!$B$6</f>
-        <v>66.211418725863368</v>
+        <v>76.840866663128992</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Winter'!J4*Scenarios!$B$6</f>
-        <v>69.707232975378346</v>
+        <v>80.897891898281046</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Winter'!K4*Scenarios!$B$6</f>
-        <v>68.37162288004869</v>
+        <v>79.347865645648184</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Winter'!L4*Scenarios!$B$6</f>
-        <v>67.59348482450882</v>
+        <v>78.444806872375153</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Winter'!M4*Scenarios!$B$6</f>
-        <v>68.12772886264068</v>
+        <v>79.064817373428284</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Winter'!N4*Scenarios!$B$6</f>
-        <v>65.050018642968027</v>
+        <v>75.493017747796074</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Winter'!O4*Scenarios!$B$6</f>
-        <v>63.946688564217453</v>
+        <v>74.212561278229828</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Winter'!P4*Scenarios!$B$6</f>
-        <v>63.981530566704315</v>
+        <v>74.252996745689813</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Winter'!Q4*Scenarios!$B$6</f>
-        <v>64.597072610638847</v>
+        <v>74.967356670816244</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Winter'!R4*Scenarios!$B$6</f>
-        <v>65.340368663691862</v>
+        <v>75.829979976629303</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Winter'!S4*Scenarios!$B$6</f>
-        <v>65.909454704310576</v>
+        <v>76.490425945142434</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Winter'!T4*Scenarios!$B$6</f>
-        <v>69.11491893310172</v>
+        <v>80.210488951461244</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Winter'!U4*Scenarios!$B$6</f>
-        <v>69.184602938075443</v>
+        <v>80.29135988638123</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Winter'!V4*Scenarios!$B$6</f>
-        <v>65.909454704310576</v>
+        <v>76.490425945142434</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Winter'!W4*Scenarios!$B$6</f>
-        <v>60.683154331281543</v>
+        <v>70.42510582614436</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Winter'!X4*Scenarios!$B$6</f>
-        <v>54.59741789690996</v>
+        <v>63.36237750979992</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Winter'!Y4*Scenarios!$B$6</f>
-        <v>50.718341620039524</v>
+        <v>58.860562132588022</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1811,7 +1812,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1851,9 +1852,9 @@
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1930,310 +1931,310 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Flexibility, Winter'!B2*Scenarios!$B$6</f>
-        <v>55.881248905210505</v>
+        <v>64.852312164957496</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Flexibility, Winter'!C2*Scenarios!$B$6</f>
-        <v>55.881248905210505</v>
+        <v>64.852312164957496</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Flexibility, Winter'!D2*Scenarios!$B$6</f>
-        <v>55.881248905210505</v>
+        <v>64.852312164957496</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Flexibility, Winter'!E2*Scenarios!$B$6</f>
-        <v>55.881248905210505</v>
+        <v>64.852312164957496</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Flexibility, Winter'!F2*Scenarios!$B$6</f>
-        <v>55.881248905210505</v>
+        <v>64.852312164957496</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Flexibility, Winter'!G2*Scenarios!$B$6</f>
-        <v>55.881248905210505</v>
+        <v>64.852312164957496</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Flexibility, Winter'!H2*Scenarios!$B$6</f>
-        <v>55.881248905210505</v>
+        <v>64.852312164957496</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Flexibility, Winter'!I2*Scenarios!$B$6</f>
-        <v>55.881248905210505</v>
+        <v>64.852312164957496</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Flexibility, Winter'!J2*Scenarios!$B$6</f>
-        <v>55.881248905210505</v>
+        <v>64.852312164957496</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Flexibility, Winter'!K2*Scenarios!$B$6</f>
-        <v>55.881248905210505</v>
+        <v>64.852312164957496</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Flexibility, Winter'!L2*Scenarios!$B$6</f>
-        <v>55.881248905210505</v>
+        <v>64.852312164957496</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Flexibility, Winter'!M2*Scenarios!$B$6</f>
-        <v>55.881248905210505</v>
+        <v>64.852312164957496</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Flexibility, Winter'!N2*Scenarios!$B$6</f>
-        <v>55.881248905210505</v>
+        <v>64.852312164957496</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Flexibility, Winter'!O2*Scenarios!$B$6</f>
-        <v>55.881248905210505</v>
+        <v>64.852312164957496</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Flexibility, Winter'!P2*Scenarios!$B$6</f>
-        <v>55.881248905210505</v>
+        <v>64.852312164957496</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Flexibility, Winter'!Q2*Scenarios!$B$6</f>
-        <v>55.881248905210505</v>
+        <v>64.852312164957496</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Flexibility, Winter'!R2*Scenarios!$B$6</f>
-        <v>55.881248905210505</v>
+        <v>64.852312164957496</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Flexibility, Winter'!S2*Scenarios!$B$6</f>
-        <v>55.881248905210505</v>
+        <v>64.852312164957496</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Flexibility, Winter'!T2*Scenarios!$B$6</f>
-        <v>55.881248905210505</v>
+        <v>64.852312164957496</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Flexibility, Winter'!U2*Scenarios!$B$6</f>
-        <v>55.881248905210505</v>
+        <v>64.852312164957496</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Flexibility, Winter'!V2*Scenarios!$B$6</f>
-        <v>55.881248905210505</v>
+        <v>64.852312164957496</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Flexibility, Winter'!W2*Scenarios!$B$6</f>
-        <v>55.881248905210505</v>
+        <v>64.852312164957496</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Flexibility, Winter'!X2*Scenarios!$B$6</f>
-        <v>55.881248905210505</v>
+        <v>64.852312164957496</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Flexibility, Winter'!Y2*Scenarios!$B$6</f>
-        <v>55.881248905210505</v>
+        <v>64.852312164957496</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Flexibility, Winter'!B3*Scenarios!$B$6</f>
-        <v>51.102087564096195</v>
+        <v>59.305913878362595</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Flexibility, Winter'!C3*Scenarios!$B$6</f>
-        <v>51.102087564096195</v>
+        <v>59.305913878362595</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Flexibility, Winter'!D3*Scenarios!$B$6</f>
-        <v>51.102087564096195</v>
+        <v>59.305913878362595</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Flexibility, Winter'!E3*Scenarios!$B$6</f>
-        <v>51.102087564096195</v>
+        <v>59.305913878362595</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Flexibility, Winter'!F3*Scenarios!$B$6</f>
-        <v>51.102087564096195</v>
+        <v>59.305913878362595</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Flexibility, Winter'!G3*Scenarios!$B$6</f>
-        <v>51.102087564096195</v>
+        <v>59.305913878362595</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Flexibility, Winter'!H3*Scenarios!$B$6</f>
-        <v>51.102087564096195</v>
+        <v>59.305913878362595</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Flexibility, Winter'!I3*Scenarios!$B$6</f>
-        <v>51.102087564096195</v>
+        <v>59.305913878362595</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Flexibility, Winter'!J3*Scenarios!$B$6</f>
-        <v>51.102087564096195</v>
+        <v>59.305913878362595</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Flexibility, Winter'!K3*Scenarios!$B$6</f>
-        <v>51.102087564096195</v>
+        <v>59.305913878362595</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Flexibility, Winter'!L3*Scenarios!$B$6</f>
-        <v>51.102087564096195</v>
+        <v>59.305913878362595</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Flexibility, Winter'!M3*Scenarios!$B$6</f>
-        <v>51.102087564096195</v>
+        <v>59.305913878362595</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Flexibility, Winter'!N3*Scenarios!$B$6</f>
-        <v>51.102087564096195</v>
+        <v>59.305913878362595</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Flexibility, Winter'!O3*Scenarios!$B$6</f>
-        <v>51.102087564096195</v>
+        <v>59.305913878362595</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Flexibility, Winter'!P3*Scenarios!$B$6</f>
-        <v>51.102087564096195</v>
+        <v>59.305913878362595</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Flexibility, Winter'!Q3*Scenarios!$B$6</f>
-        <v>51.102087564096195</v>
+        <v>59.305913878362595</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Flexibility, Winter'!R3*Scenarios!$B$6</f>
-        <v>51.102087564096195</v>
+        <v>59.305913878362595</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Flexibility, Winter'!S3*Scenarios!$B$6</f>
-        <v>51.102087564096195</v>
+        <v>59.305913878362595</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Flexibility, Winter'!T3*Scenarios!$B$6</f>
-        <v>51.102087564096195</v>
+        <v>59.305913878362595</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Flexibility, Winter'!U3*Scenarios!$B$6</f>
-        <v>51.102087564096195</v>
+        <v>59.305913878362595</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Flexibility, Winter'!V3*Scenarios!$B$6</f>
-        <v>51.102087564096195</v>
+        <v>59.305913878362595</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Flexibility, Winter'!W3*Scenarios!$B$6</f>
-        <v>51.102087564096195</v>
+        <v>59.305913878362595</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Flexibility, Winter'!X3*Scenarios!$B$6</f>
-        <v>51.102087564096195</v>
+        <v>59.305913878362595</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Flexibility, Winter'!Y3*Scenarios!$B$6</f>
-        <v>51.102087564096195</v>
+        <v>59.305913878362595</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Flexibility, Winter'!B4*Scenarios!$B$6</f>
-        <v>60.660410246324844</v>
+        <v>70.398710451552418</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Flexibility, Winter'!C4*Scenarios!$B$6</f>
-        <v>60.660410246324844</v>
+        <v>70.398710451552418</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Flexibility, Winter'!D4*Scenarios!$B$6</f>
-        <v>60.660410246324844</v>
+        <v>70.398710451552418</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Flexibility, Winter'!E4*Scenarios!$B$6</f>
-        <v>60.660410246324844</v>
+        <v>70.398710451552418</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Flexibility, Winter'!F4*Scenarios!$B$6</f>
-        <v>60.660410246324844</v>
+        <v>70.398710451552418</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Flexibility, Winter'!G4*Scenarios!$B$6</f>
-        <v>60.660410246324844</v>
+        <v>70.398710451552418</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Flexibility, Winter'!H4*Scenarios!$B$6</f>
-        <v>60.660410246324844</v>
+        <v>70.398710451552418</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Flexibility, Winter'!I4*Scenarios!$B$6</f>
-        <v>60.660410246324844</v>
+        <v>70.398710451552418</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Flexibility, Winter'!J4*Scenarios!$B$6</f>
-        <v>60.660410246324844</v>
+        <v>70.398710451552418</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Flexibility, Winter'!K4*Scenarios!$B$6</f>
-        <v>60.660410246324844</v>
+        <v>70.398710451552418</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Flexibility, Winter'!L4*Scenarios!$B$6</f>
-        <v>60.660410246324844</v>
+        <v>70.398710451552418</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Flexibility, Winter'!M4*Scenarios!$B$6</f>
-        <v>60.660410246324844</v>
+        <v>70.398710451552418</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Flexibility, Winter'!N4*Scenarios!$B$6</f>
-        <v>60.660410246324844</v>
+        <v>70.398710451552418</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Flexibility, Winter'!O4*Scenarios!$B$6</f>
-        <v>60.660410246324844</v>
+        <v>70.398710451552418</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Flexibility, Winter'!P4*Scenarios!$B$6</f>
-        <v>60.660410246324844</v>
+        <v>70.398710451552418</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Flexibility, Winter'!Q4*Scenarios!$B$6</f>
-        <v>60.660410246324844</v>
+        <v>70.398710451552418</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Flexibility, Winter'!R4*Scenarios!$B$6</f>
-        <v>60.660410246324844</v>
+        <v>70.398710451552418</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Flexibility, Winter'!S4*Scenarios!$B$6</f>
-        <v>60.660410246324844</v>
+        <v>70.398710451552418</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Flexibility, Winter'!T4*Scenarios!$B$6</f>
-        <v>60.660410246324844</v>
+        <v>70.398710451552418</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Flexibility, Winter'!U4*Scenarios!$B$6</f>
-        <v>60.660410246324844</v>
+        <v>70.398710451552418</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Flexibility, Winter'!V4*Scenarios!$B$6</f>
-        <v>60.660410246324844</v>
+        <v>70.398710451552418</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Flexibility, Winter'!W4*Scenarios!$B$6</f>
-        <v>60.660410246324844</v>
+        <v>70.398710451552418</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Flexibility, Winter'!X4*Scenarios!$B$6</f>
-        <v>60.660410246324844</v>
+        <v>70.398710451552418</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Flexibility, Winter'!Y4*Scenarios!$B$6</f>
-        <v>60.660410246324844</v>
+        <v>70.398710451552418</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2259,7 +2260,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2296,12 +2297,12 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y4"/>
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2378,310 +2379,310 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Summer'!B2*Scenarios!$B$6</f>
-        <v>43.28538108950935</v>
+        <v>50.23432907445742</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Summer'!C2*Scenarios!$B$6</f>
-        <v>39.499216819270529</v>
+        <v>45.840341610472137</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Summer'!D2*Scenarios!$B$6</f>
-        <v>37.826800699901241</v>
+        <v>43.899439172392761</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Summer'!E2*Scenarios!$B$6</f>
-        <v>37.141574650992993</v>
+        <v>43.104208312346344</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Summer'!F2*Scenarios!$B$6</f>
-        <v>37.315784663427294</v>
+        <v>43.30638564964628</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Summer'!G2*Scenarios!$B$6</f>
-        <v>42.240121014903536</v>
+        <v>49.021265050657796</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Summer'!H2*Scenarios!$B$6</f>
-        <v>44.028677142562358</v>
+        <v>51.096952380270473</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Summer'!I2*Scenarios!$B$6</f>
-        <v>44.028677142562358</v>
+        <v>51.096952380270473</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Summer'!J2*Scenarios!$B$6</f>
-        <v>46.270179302550375</v>
+        <v>53.698300786862994</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Summer'!K2*Scenarios!$B$6</f>
-        <v>46.386319310839902</v>
+        <v>53.833085678396273</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Summer'!L2*Scenarios!$B$6</f>
-        <v>46.270179302550375</v>
+        <v>53.698300786862994</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Summer'!M2*Scenarios!$B$6</f>
-        <v>46.467617316642574</v>
+        <v>53.92743510246958</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Summer'!N2*Scenarios!$B$6</f>
-        <v>45.805619269392231</v>
+        <v>53.159161220729821</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Summer'!O2*Scenarios!$B$6</f>
-        <v>45.515269248668396</v>
+        <v>52.822198991896592</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Summer'!P2*Scenarios!$B$6</f>
-        <v>44.562921180694218</v>
+        <v>51.71696288132361</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Summer'!Q2*Scenarios!$B$6</f>
-        <v>43.192469082877714</v>
+        <v>50.126501161230784</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Summer'!R2*Scenarios!$B$6</f>
-        <v>40.625774899679008</v>
+        <v>47.147755058345055</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Summer'!S2*Scenarios!$B$6</f>
-        <v>43.401521097798877</v>
+        <v>50.369113965990707</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Summer'!T2*Scenarios!$B$6</f>
-        <v>45.062323216339209</v>
+        <v>52.296537914916762</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Summer'!U2*Scenarios!$B$6</f>
-        <v>46.339863307524091</v>
+        <v>53.779171721782959</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Summer'!V2*Scenarios!$B$6</f>
-        <v>45.341059236234095</v>
+        <v>52.620021654596663</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Summer'!W2*Scenarios!$B$6</f>
-        <v>46.270179302550375</v>
+        <v>53.698300786862994</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Summer'!X2*Scenarios!$B$6</f>
-        <v>46.177267295918739</v>
+        <v>53.590472873636351</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Summer'!Y2*Scenarios!$B$6</f>
-        <v>44.295799161628288</v>
+        <v>51.406957630797045</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Summer'!B3*Scenarios!$B$6</f>
-        <v>46.084355289287117</v>
+        <v>53.482644960409722</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Summer'!C3*Scenarios!$B$6</f>
-        <v>40.649002901336921</v>
+        <v>47.174712036651719</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Summer'!D3*Scenarios!$B$6</f>
-        <v>44.365483166602012</v>
+        <v>51.487828565717024</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Summer'!E3*Scenarios!$B$6</f>
-        <v>42.855663058838068</v>
+        <v>49.735624975784241</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Summer'!F3*Scenarios!$B$6</f>
-        <v>43.680257117693756</v>
+        <v>50.692597705670607</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Summer'!G3*Scenarios!$B$6</f>
-        <v>44.365483166602012</v>
+        <v>51.487828565717024</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Summer'!H3*Scenarios!$B$6</f>
-        <v>43.215697084535627</v>
+        <v>50.153458139537442</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Summer'!I3*Scenarios!$B$6</f>
-        <v>46.665055330734781</v>
+        <v>54.156569418076174</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Summer'!J3*Scenarios!$B$6</f>
-        <v>49.754379551236397</v>
+        <v>57.741847532861712</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Summer'!K3*Scenarios!$B$6</f>
-        <v>49.975045566986509</v>
+        <v>57.997938826774963</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Summer'!L3*Scenarios!$B$6</f>
-        <v>50.462833601802551</v>
+        <v>58.564035371214786</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Summer'!M3*Scenarios!$B$6</f>
-        <v>51.415181669776729</v>
+        <v>59.669271481787767</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Summer'!N3*Scenarios!$B$6</f>
-        <v>52.228161727803467</v>
+        <v>60.612765722520791</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Summer'!O3*Scenarios!$B$6</f>
-        <v>53.586999824791015</v>
+        <v>62.189748953460295</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Summer'!P3*Scenarios!$B$6</f>
-        <v>51.554549679724168</v>
+        <v>59.831013351627711</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Summer'!Q3*Scenarios!$B$6</f>
-        <v>49.951817565328597</v>
+        <v>57.970981848468298</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Summer'!R3*Scenarios!$B$6</f>
-        <v>49.777607552894295</v>
+        <v>57.768804511168362</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Summer'!S3*Scenarios!$B$6</f>
-        <v>50.78802562501324</v>
+        <v>58.941433067507987</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Summer'!T3*Scenarios!$B$6</f>
-        <v>51.066761644908127</v>
+        <v>59.264916807187888</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Summer'!U3*Scenarios!$B$6</f>
-        <v>52.146863722000788</v>
+        <v>60.518416298447491</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Summer'!V3*Scenarios!$B$6</f>
-        <v>52.785633767593232</v>
+        <v>61.259733201880593</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Summer'!W3*Scenarios!$B$6</f>
-        <v>53.598613825619964</v>
+        <v>62.203227442613624</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Summer'!X3*Scenarios!$B$6</f>
-        <v>52.228161727803467</v>
+        <v>60.612765722520791</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Summer'!Y3*Scenarios!$B$6</f>
-        <v>49.359503523051977</v>
+        <v>57.283578901648518</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Summer'!B4*Scenarios!$B$6</f>
-        <v>38.779148767875419</v>
+        <v>45.004675282965742</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Summer'!C4*Scenarios!$B$6</f>
-        <v>35.794350554834395</v>
+        <v>41.540703570560176</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Summer'!D4*Scenarios!$B$6</f>
-        <v>33.552848394846393</v>
+        <v>38.939355163967662</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Summer'!E4*Scenarios!$B$6</f>
-        <v>33.018604356714533</v>
+        <v>38.319344662914524</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Summer'!F4*Scenarios!$B$6</f>
-        <v>34.156776437951969</v>
+        <v>39.640236599940778</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Summer'!G4*Scenarios!$B$6</f>
-        <v>39.94054885077076</v>
+        <v>46.352524198298646</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Summer'!H4*Scenarios!$B$6</f>
-        <v>52.541739750185208</v>
+        <v>60.976684929660685</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Summer'!I4*Scenarios!$B$6</f>
-        <v>49.847291557868019</v>
+        <v>57.849675446088341</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Summer'!J4*Scenarios!$B$6</f>
-        <v>52.123635720342889</v>
+        <v>60.491459320140841</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Summer'!K4*Scenarios!$B$6</f>
-        <v>51.450023672263583</v>
+        <v>59.709706949247746</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Summer'!L4*Scenarios!$B$6</f>
-        <v>47.687087403682689</v>
+        <v>55.342676463569134</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Summer'!M4*Scenarios!$B$6</f>
-        <v>46.339863307524091</v>
+        <v>53.779171721782959</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Summer'!N4*Scenarios!$B$6</f>
-        <v>51.310655662316144</v>
+        <v>59.547965079407803</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Summer'!O4*Scenarios!$B$6</f>
-        <v>52.472055745211485</v>
+        <v>60.895813994740706</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Summer'!P4*Scenarios!$B$6</f>
-        <v>52.123635720342889</v>
+        <v>60.491459320140841</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Summer'!Q4*Scenarios!$B$6</f>
-        <v>51.508093676408357</v>
+        <v>59.777099395014396</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Summer'!R4*Scenarios!$B$6</f>
-        <v>51.508093676408357</v>
+        <v>59.777099395014396</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Summer'!S4*Scenarios!$B$6</f>
-        <v>52.123635720342889</v>
+        <v>60.491459320140841</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Summer'!T4*Scenarios!$B$6</f>
-        <v>53.633455828106825</v>
+        <v>62.24366291007361</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Summer'!U4*Scenarios!$B$6</f>
-        <v>55.607835969028912</v>
+        <v>64.535006066139559</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Summer'!V4*Scenarios!$B$6</f>
-        <v>59.440456242583529</v>
+        <v>68.982907486738142</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Summer'!W4*Scenarios!$B$6</f>
-        <v>64.678370616441512</v>
+        <v>75.061706094889544</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Summer'!X4*Scenarios!$B$6</f>
-        <v>58.964282208596444</v>
+        <v>68.430289431451655</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Summer'!Y4*Scenarios!$B$6</f>
-        <v>52.263003730290329</v>
+        <v>60.653201189980784</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2707,7 +2708,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2747,9 +2748,9 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2826,310 +2827,310 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Flexibility, Summer'!B2*Scenarios!$B$6</f>
-        <v>43.639608114792416</v>
+        <v>50.64542299363395</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Flexibility, Summer'!C2*Scenarios!$B$6</f>
-        <v>43.639608114792416</v>
+        <v>50.64542299363395</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Flexibility, Summer'!D2*Scenarios!$B$6</f>
-        <v>43.639608114792416</v>
+        <v>50.64542299363395</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Flexibility, Summer'!E2*Scenarios!$B$6</f>
-        <v>43.639608114792416</v>
+        <v>50.64542299363395</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Flexibility, Summer'!F2*Scenarios!$B$6</f>
-        <v>43.639608114792416</v>
+        <v>50.64542299363395</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Flexibility, Summer'!G2*Scenarios!$B$6</f>
-        <v>43.639608114792416</v>
+        <v>50.64542299363395</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Flexibility, Summer'!H2*Scenarios!$B$6</f>
-        <v>43.639608114792416</v>
+        <v>50.64542299363395</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Flexibility, Summer'!I2*Scenarios!$B$6</f>
-        <v>43.639608114792416</v>
+        <v>50.64542299363395</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Flexibility, Summer'!J2*Scenarios!$B$6</f>
-        <v>43.639608114792416</v>
+        <v>50.64542299363395</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Flexibility, Summer'!K2*Scenarios!$B$6</f>
-        <v>43.639608114792416</v>
+        <v>50.64542299363395</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Flexibility, Summer'!L2*Scenarios!$B$6</f>
-        <v>43.639608114792416</v>
+        <v>50.64542299363395</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Flexibility, Summer'!M2*Scenarios!$B$6</f>
-        <v>43.639608114792416</v>
+        <v>50.64542299363395</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Flexibility, Summer'!N2*Scenarios!$B$6</f>
-        <v>43.639608114792416</v>
+        <v>50.64542299363395</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Flexibility, Summer'!O2*Scenarios!$B$6</f>
-        <v>43.639608114792416</v>
+        <v>50.64542299363395</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Flexibility, Summer'!P2*Scenarios!$B$6</f>
-        <v>43.639608114792416</v>
+        <v>50.64542299363395</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Flexibility, Summer'!Q2*Scenarios!$B$6</f>
-        <v>43.639608114792416</v>
+        <v>50.64542299363395</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Flexibility, Summer'!R2*Scenarios!$B$6</f>
-        <v>43.639608114792416</v>
+        <v>50.64542299363395</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Flexibility, Summer'!S2*Scenarios!$B$6</f>
-        <v>43.639608114792416</v>
+        <v>50.64542299363395</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Flexibility, Summer'!T2*Scenarios!$B$6</f>
-        <v>43.639608114792416</v>
+        <v>50.64542299363395</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Flexibility, Summer'!U2*Scenarios!$B$6</f>
-        <v>43.639608114792416</v>
+        <v>50.64542299363395</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Flexibility, Summer'!V2*Scenarios!$B$6</f>
-        <v>43.639608114792416</v>
+        <v>50.64542299363395</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Flexibility, Summer'!W2*Scenarios!$B$6</f>
-        <v>43.639608114792416</v>
+        <v>50.64542299363395</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Flexibility, Summer'!X2*Scenarios!$B$6</f>
-        <v>43.639608114792416</v>
+        <v>50.64542299363395</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Flexibility, Summer'!Y2*Scenarios!$B$6</f>
-        <v>43.639608114792416</v>
+        <v>50.64542299363395</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Flexibility, Summer'!B3*Scenarios!$B$6</f>
-        <v>48.856714070498526</v>
+        <v>56.700072642052305</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Flexibility, Summer'!C3*Scenarios!$B$6</f>
-        <v>48.856714070498526</v>
+        <v>56.700072642052305</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Flexibility, Summer'!D3*Scenarios!$B$6</f>
-        <v>48.856714070498526</v>
+        <v>56.700072642052305</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Flexibility, Summer'!E3*Scenarios!$B$6</f>
-        <v>48.856714070498526</v>
+        <v>56.700072642052305</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Flexibility, Summer'!F3*Scenarios!$B$6</f>
-        <v>48.856714070498526</v>
+        <v>56.700072642052305</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Flexibility, Summer'!G3*Scenarios!$B$6</f>
-        <v>48.856714070498526</v>
+        <v>56.700072642052305</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Flexibility, Summer'!H3*Scenarios!$B$6</f>
-        <v>48.856714070498526</v>
+        <v>56.700072642052305</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Flexibility, Summer'!I3*Scenarios!$B$6</f>
-        <v>48.856714070498526</v>
+        <v>56.700072642052305</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Flexibility, Summer'!J3*Scenarios!$B$6</f>
-        <v>48.856714070498526</v>
+        <v>56.700072642052305</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Flexibility, Summer'!K3*Scenarios!$B$6</f>
-        <v>48.856714070498526</v>
+        <v>56.700072642052305</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Flexibility, Summer'!L3*Scenarios!$B$6</f>
-        <v>48.856714070498526</v>
+        <v>56.700072642052305</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Flexibility, Summer'!M3*Scenarios!$B$6</f>
-        <v>48.856714070498526</v>
+        <v>56.700072642052305</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Flexibility, Summer'!N3*Scenarios!$B$6</f>
-        <v>48.856714070498526</v>
+        <v>56.700072642052305</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Flexibility, Summer'!O3*Scenarios!$B$6</f>
-        <v>48.856714070498526</v>
+        <v>56.700072642052305</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Flexibility, Summer'!P3*Scenarios!$B$6</f>
-        <v>48.856714070498526</v>
+        <v>56.700072642052305</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Flexibility, Summer'!Q3*Scenarios!$B$6</f>
-        <v>48.856714070498526</v>
+        <v>56.700072642052305</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Flexibility, Summer'!R3*Scenarios!$B$6</f>
-        <v>48.856714070498526</v>
+        <v>56.700072642052305</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Flexibility, Summer'!S3*Scenarios!$B$6</f>
-        <v>48.856714070498526</v>
+        <v>56.700072642052305</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Flexibility, Summer'!T3*Scenarios!$B$6</f>
-        <v>48.856714070498526</v>
+        <v>56.700072642052305</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Flexibility, Summer'!U3*Scenarios!$B$6</f>
-        <v>48.856714070498526</v>
+        <v>56.700072642052305</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Flexibility, Summer'!V3*Scenarios!$B$6</f>
-        <v>48.856714070498526</v>
+        <v>56.700072642052305</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Flexibility, Summer'!W3*Scenarios!$B$6</f>
-        <v>48.856714070498526</v>
+        <v>56.700072642052305</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Flexibility, Summer'!X3*Scenarios!$B$6</f>
-        <v>48.856714070498526</v>
+        <v>56.700072642052305</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Flexibility, Summer'!Y3*Scenarios!$B$6</f>
-        <v>48.856714070498526</v>
+        <v>56.700072642052305</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Flexibility, Summer'!B4*Scenarios!$B$6</f>
-        <v>48.786062232122397</v>
+        <v>56.618078499702889</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Flexibility, Summer'!C4*Scenarios!$B$6</f>
-        <v>48.786062232122397</v>
+        <v>56.618078499702889</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Flexibility, Summer'!D4*Scenarios!$B$6</f>
-        <v>48.786062232122397</v>
+        <v>56.618078499702889</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Flexibility, Summer'!E4*Scenarios!$B$6</f>
-        <v>48.786062232122397</v>
+        <v>56.618078499702889</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Flexibility, Summer'!F4*Scenarios!$B$6</f>
-        <v>48.786062232122397</v>
+        <v>56.618078499702889</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Flexibility, Summer'!G4*Scenarios!$B$6</f>
-        <v>48.786062232122397</v>
+        <v>56.618078499702889</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Flexibility, Summer'!H4*Scenarios!$B$6</f>
-        <v>48.786062232122397</v>
+        <v>56.618078499702889</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Flexibility, Summer'!I4*Scenarios!$B$6</f>
-        <v>48.786062232122397</v>
+        <v>56.618078499702889</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Flexibility, Summer'!J4*Scenarios!$B$6</f>
-        <v>48.786062232122397</v>
+        <v>56.618078499702889</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Flexibility, Summer'!K4*Scenarios!$B$6</f>
-        <v>48.786062232122397</v>
+        <v>56.618078499702889</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Flexibility, Summer'!L4*Scenarios!$B$6</f>
-        <v>48.786062232122397</v>
+        <v>56.618078499702889</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Flexibility, Summer'!M4*Scenarios!$B$6</f>
-        <v>48.786062232122397</v>
+        <v>56.618078499702889</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Flexibility, Summer'!N4*Scenarios!$B$6</f>
-        <v>48.786062232122397</v>
+        <v>56.618078499702889</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Flexibility, Summer'!O4*Scenarios!$B$6</f>
-        <v>48.786062232122397</v>
+        <v>56.618078499702889</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Flexibility, Summer'!P4*Scenarios!$B$6</f>
-        <v>48.786062232122397</v>
+        <v>56.618078499702889</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Flexibility, Summer'!Q4*Scenarios!$B$6</f>
-        <v>48.786062232122397</v>
+        <v>56.618078499702889</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Flexibility, Summer'!R4*Scenarios!$B$6</f>
-        <v>48.786062232122397</v>
+        <v>56.618078499702889</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Flexibility, Summer'!S4*Scenarios!$B$6</f>
-        <v>48.786062232122397</v>
+        <v>56.618078499702889</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Flexibility, Summer'!T4*Scenarios!$B$6</f>
-        <v>48.786062232122397</v>
+        <v>56.618078499702889</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Flexibility, Summer'!U4*Scenarios!$B$6</f>
-        <v>48.786062232122397</v>
+        <v>56.618078499702889</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Flexibility, Summer'!V4*Scenarios!$B$6</f>
-        <v>48.786062232122397</v>
+        <v>56.618078499702889</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Flexibility, Summer'!W4*Scenarios!$B$6</f>
-        <v>48.786062232122397</v>
+        <v>56.618078499702889</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Flexibility, Summer'!X4*Scenarios!$B$6</f>
-        <v>48.786062232122397</v>
+        <v>56.618078499702889</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Flexibility, Summer'!Y4*Scenarios!$B$6</f>
-        <v>48.786062232122397</v>
+        <v>56.618078499702889</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -3155,7 +3156,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>

--- a/data/IEEE9/Market Data/ieee9_market_data_2055.xlsx
+++ b/data/IEEE9/Market Data/ieee9_market_data_2055.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF8BC95-BFC4-4436-BEFC-B5DEC0264BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D69C3C6-6AB7-4E8F-AB33-4E099530D99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12645" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="69675" yWindow="-8400" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/3</f>

--- a/data/IEEE9/Market Data/ieee9_market_data_2055.xlsx
+++ b/data/IEEE9/Market Data/ieee9_market_data_2055.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D69C3C6-6AB7-4E8F-AB33-4E099530D99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A49E6B-95E0-495A-AB67-1A0E6B99125A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="69675" yWindow="-8400" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
@@ -1361,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="3">
-        <v>2050</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1378,7 +1377,7 @@
       </c>
       <c r="B6" s="1">
         <f>(1+[1]Main!$B$4)^($B$3-[1]Main!$B$1)</f>
-        <v>1.3478489153329063</v>
+        <v>1.4166027560312682</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1387,7 +1386,7 @@
       </c>
       <c r="B7" s="1">
         <f>(1+[1]Main!$B$5)^($B$3-[1]Main!$B$1)</f>
-        <v>1.8113615841033535</v>
+        <v>1.9998895526624547</v>
       </c>
     </row>
   </sheetData>
@@ -1489,99 +1488,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Winter'!B2*Scenarios!$B$6</f>
-        <v>58.914476089201337</v>
+        <v>61.919706466126733</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Winter'!C2*Scenarios!$B$6</f>
-        <v>54.972018011852576</v>
+        <v>57.776143404735265</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Winter'!D2*Scenarios!$B$6</f>
-        <v>52.636869766038316</v>
+        <v>55.321879129911096</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Winter'!E2*Scenarios!$B$6</f>
-        <v>49.361596901779365</v>
+        <v>51.879534432755122</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Winter'!F2*Scenarios!$B$6</f>
-        <v>50.834121841780565</v>
+        <v>53.427172943719285</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Winter'!G2*Scenarios!$B$6</f>
-        <v>54.918104055239276</v>
+        <v>57.719479294494029</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Winter'!H2*Scenarios!$B$6</f>
-        <v>66.442212281335614</v>
+        <v>69.831432858561371</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Winter'!I2*Scenarios!$B$6</f>
-        <v>69.535525542024644</v>
+        <v>73.082536183653133</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Winter'!J2*Scenarios!$B$6</f>
-        <v>73.120803656810168</v>
+        <v>76.850699514696302</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Winter'!K2*Scenarios!$B$6</f>
-        <v>72.564815979235334</v>
+        <v>76.266350877833403</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Winter'!L2*Scenarios!$B$6</f>
-        <v>71.166422729577462</v>
+        <v>74.796625518450966</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Winter'!M2*Scenarios!$B$6</f>
-        <v>70.819351633879222</v>
+        <v>74.431850308772908</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Winter'!N2*Scenarios!$B$6</f>
-        <v>68.076479091176751</v>
+        <v>71.549063700249263</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Winter'!O2*Scenarios!$B$6</f>
-        <v>67.116136739002073</v>
+        <v>70.539734236577004</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Winter'!P2*Scenarios!$B$6</f>
-        <v>65.798614424264159</v>
+        <v>69.155005042556439</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Winter'!Q2*Scenarios!$B$6</f>
-        <v>65.930029693509113</v>
+        <v>69.293123811269481</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Winter'!R2*Scenarios!$B$6</f>
-        <v>66.947655624585451</v>
+        <v>70.3626588920731</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Winter'!S2*Scenarios!$B$6</f>
-        <v>70.256624711727738</v>
+        <v>73.840418658129849</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Winter'!T2*Scenarios!$B$6</f>
-        <v>73.619507755483355</v>
+        <v>77.37484253442787</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Winter'!U2*Scenarios!$B$6</f>
-        <v>74.18560429992317</v>
+        <v>77.969815691961003</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Winter'!V2*Scenarios!$B$6</f>
-        <v>72.473836177450366</v>
+        <v>76.170730191801283</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Winter'!W2*Scenarios!$B$6</f>
-        <v>67.921476465913472</v>
+        <v>71.38615438330568</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Winter'!X2*Scenarios!$B$6</f>
-        <v>61.303538291628911</v>
+        <v>64.430634851192153</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Winter'!Y2*Scenarios!$B$6</f>
-        <v>57.539670195561769</v>
+        <v>60.474771654974838</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -1590,99 +1589,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Winter'!B3*Scenarios!$B$6</f>
-        <v>55.019192723889233</v>
+        <v>57.825724501196369</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Winter'!C3*Scenarios!$B$6</f>
-        <v>51.932618707776882</v>
+        <v>54.581704189884768</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Winter'!D3*Scenarios!$B$6</f>
-        <v>48.569735664021273</v>
+        <v>51.047280313586747</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Winter'!E3*Scenarios!$B$6</f>
-        <v>46.399698910335296</v>
+        <v>48.766549876376402</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Winter'!F3*Scenarios!$B$6</f>
-        <v>48.980829583197817</v>
+        <v>51.479344154176289</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Winter'!G3*Scenarios!$B$6</f>
-        <v>51.595656478943653</v>
+        <v>54.227553500876944</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Winter'!H3*Scenarios!$B$6</f>
-        <v>59.57492205771446</v>
+        <v>62.61384181658206</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Winter'!I3*Scenarios!$B$6</f>
-        <v>62.230184420920288</v>
+        <v>65.404549245963651</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Winter'!J3*Scenarios!$B$6</f>
-        <v>65.343715415339304</v>
+        <v>68.676901612395881</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Winter'!K3*Scenarios!$B$6</f>
-        <v>65.781766312822498</v>
+        <v>69.137297508106045</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Winter'!L3*Scenarios!$B$6</f>
-        <v>63.888038586779764</v>
+        <v>67.146970635882113</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Winter'!M3*Scenarios!$B$6</f>
-        <v>62.573885894330168</v>
+        <v>65.765782948751621</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Winter'!N3*Scenarios!$B$6</f>
-        <v>60.659940434557441</v>
+        <v>63.754207035187221</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Winter'!O3*Scenarios!$B$6</f>
-        <v>60.019712199774318</v>
+        <v>63.08132072607237</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Winter'!P3*Scenarios!$B$6</f>
-        <v>57.344232102838504</v>
+        <v>60.269364255350304</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Winter'!Q3*Scenarios!$B$6</f>
-        <v>56.892702716201974</v>
+        <v>59.794802332079833</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Winter'!R3*Scenarios!$B$6</f>
-        <v>58.065331272541599</v>
+        <v>61.027246729827027</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Winter'!S3*Scenarios!$B$6</f>
-        <v>64.022823478313043</v>
+        <v>67.288630911485242</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Winter'!T3*Scenarios!$B$6</f>
-        <v>67.028526559505437</v>
+        <v>70.447655057434972</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Winter'!U3*Scenarios!$B$6</f>
-        <v>68.079848713465097</v>
+        <v>71.552605207139365</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Winter'!V3*Scenarios!$B$6</f>
-        <v>68.457246409758312</v>
+        <v>71.949253978828111</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Winter'!W3*Scenarios!$B$6</f>
-        <v>65.417847105682597</v>
+        <v>68.754814763977592</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Winter'!X3*Scenarios!$B$6</f>
-        <v>59.244699073457895</v>
+        <v>62.266774141354389</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Winter'!Y3*Scenarios!$B$6</f>
-        <v>56.218778258535522</v>
+        <v>59.086500954064199</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -1691,99 +1690,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Winter'!B4*Scenarios!$B$6</f>
-        <v>62.809759454513433</v>
+        <v>66.013688431057105</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Winter'!C4*Scenarios!$B$6</f>
-        <v>58.011417315928284</v>
+        <v>60.970582619585784</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Winter'!D4*Scenarios!$B$6</f>
-        <v>56.704003868055366</v>
+        <v>59.596477946235453</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Winter'!E4*Scenarios!$B$6</f>
-        <v>52.323494893223426</v>
+        <v>54.992518989133828</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Winter'!F4*Scenarios!$B$6</f>
-        <v>52.687414100363313</v>
+        <v>55.37500173326228</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Winter'!G4*Scenarios!$B$6</f>
-        <v>58.240551631534885</v>
+        <v>61.2114050881111</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Winter'!H4*Scenarios!$B$6</f>
-        <v>73.309502504956768</v>
+        <v>77.049023900540675</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Winter'!I4*Scenarios!$B$6</f>
-        <v>76.840866663128992</v>
+        <v>80.760523121342601</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Winter'!J4*Scenarios!$B$6</f>
-        <v>80.897891898281046</v>
+        <v>85.024497416996724</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Winter'!K4*Scenarios!$B$6</f>
-        <v>79.347865645648184</v>
+        <v>83.395404247560748</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Winter'!L4*Scenarios!$B$6</f>
-        <v>78.444806872375153</v>
+        <v>82.446280401019806</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Winter'!M4*Scenarios!$B$6</f>
-        <v>79.064817373428284</v>
+        <v>83.097917668794182</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Winter'!N4*Scenarios!$B$6</f>
-        <v>75.493017747796074</v>
+        <v>79.343920365311334</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Winter'!O4*Scenarios!$B$6</f>
-        <v>74.212561278229828</v>
+        <v>77.998147747081632</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Winter'!P4*Scenarios!$B$6</f>
-        <v>74.252996745689813</v>
+        <v>78.040645829762568</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Winter'!Q4*Scenarios!$B$6</f>
-        <v>74.967356670816244</v>
+        <v>78.791445290459137</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Winter'!R4*Scenarios!$B$6</f>
-        <v>75.829979976629303</v>
+        <v>79.698071054319144</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Winter'!S4*Scenarios!$B$6</f>
-        <v>76.490425945142434</v>
+        <v>80.39220640477447</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Winter'!T4*Scenarios!$B$6</f>
-        <v>80.210488951461244</v>
+        <v>84.302030011420769</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Winter'!U4*Scenarios!$B$6</f>
-        <v>80.29135988638123</v>
+        <v>84.387026176782641</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Winter'!V4*Scenarios!$B$6</f>
-        <v>76.490425945142434</v>
+        <v>80.39220640477447</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Winter'!W4*Scenarios!$B$6</f>
-        <v>70.42510582614436</v>
+        <v>74.017494002633768</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Winter'!X4*Scenarios!$B$6</f>
-        <v>63.36237750979992</v>
+        <v>66.594495561029916</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Winter'!Y4*Scenarios!$B$6</f>
-        <v>58.860562132588022</v>
+        <v>61.863042355885483</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -1937,99 +1936,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Flexibility, Winter'!B2*Scenarios!$B$6</f>
-        <v>64.852312164957496</v>
+        <v>68.160431857592798</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Flexibility, Winter'!C2*Scenarios!$B$6</f>
-        <v>64.852312164957496</v>
+        <v>68.160431857592798</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Flexibility, Winter'!D2*Scenarios!$B$6</f>
-        <v>64.852312164957496</v>
+        <v>68.160431857592798</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Flexibility, Winter'!E2*Scenarios!$B$6</f>
-        <v>64.852312164957496</v>
+        <v>68.160431857592798</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Flexibility, Winter'!F2*Scenarios!$B$6</f>
-        <v>64.852312164957496</v>
+        <v>68.160431857592798</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Flexibility, Winter'!G2*Scenarios!$B$6</f>
-        <v>64.852312164957496</v>
+        <v>68.160431857592798</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Flexibility, Winter'!H2*Scenarios!$B$6</f>
-        <v>64.852312164957496</v>
+        <v>68.160431857592798</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Flexibility, Winter'!I2*Scenarios!$B$6</f>
-        <v>64.852312164957496</v>
+        <v>68.160431857592798</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Flexibility, Winter'!J2*Scenarios!$B$6</f>
-        <v>64.852312164957496</v>
+        <v>68.160431857592798</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Flexibility, Winter'!K2*Scenarios!$B$6</f>
-        <v>64.852312164957496</v>
+        <v>68.160431857592798</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Flexibility, Winter'!L2*Scenarios!$B$6</f>
-        <v>64.852312164957496</v>
+        <v>68.160431857592798</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Flexibility, Winter'!M2*Scenarios!$B$6</f>
-        <v>64.852312164957496</v>
+        <v>68.160431857592798</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Flexibility, Winter'!N2*Scenarios!$B$6</f>
-        <v>64.852312164957496</v>
+        <v>68.160431857592798</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Flexibility, Winter'!O2*Scenarios!$B$6</f>
-        <v>64.852312164957496</v>
+        <v>68.160431857592798</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Flexibility, Winter'!P2*Scenarios!$B$6</f>
-        <v>64.852312164957496</v>
+        <v>68.160431857592798</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Flexibility, Winter'!Q2*Scenarios!$B$6</f>
-        <v>64.852312164957496</v>
+        <v>68.160431857592798</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Flexibility, Winter'!R2*Scenarios!$B$6</f>
-        <v>64.852312164957496</v>
+        <v>68.160431857592798</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Flexibility, Winter'!S2*Scenarios!$B$6</f>
-        <v>64.852312164957496</v>
+        <v>68.160431857592798</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Flexibility, Winter'!T2*Scenarios!$B$6</f>
-        <v>64.852312164957496</v>
+        <v>68.160431857592798</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Flexibility, Winter'!U2*Scenarios!$B$6</f>
-        <v>64.852312164957496</v>
+        <v>68.160431857592798</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Flexibility, Winter'!V2*Scenarios!$B$6</f>
-        <v>64.852312164957496</v>
+        <v>68.160431857592798</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Flexibility, Winter'!W2*Scenarios!$B$6</f>
-        <v>64.852312164957496</v>
+        <v>68.160431857592798</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Flexibility, Winter'!X2*Scenarios!$B$6</f>
-        <v>64.852312164957496</v>
+        <v>68.160431857592798</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Flexibility, Winter'!Y2*Scenarios!$B$6</f>
-        <v>64.852312164957496</v>
+        <v>68.160431857592798</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -2038,99 +2037,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Flexibility, Winter'!B3*Scenarios!$B$6</f>
-        <v>59.305913878362595</v>
+        <v>62.331111516524146</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Flexibility, Winter'!C3*Scenarios!$B$6</f>
-        <v>59.305913878362595</v>
+        <v>62.331111516524146</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Flexibility, Winter'!D3*Scenarios!$B$6</f>
-        <v>59.305913878362595</v>
+        <v>62.331111516524146</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Flexibility, Winter'!E3*Scenarios!$B$6</f>
-        <v>59.305913878362595</v>
+        <v>62.331111516524146</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Flexibility, Winter'!F3*Scenarios!$B$6</f>
-        <v>59.305913878362595</v>
+        <v>62.331111516524146</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Flexibility, Winter'!G3*Scenarios!$B$6</f>
-        <v>59.305913878362595</v>
+        <v>62.331111516524146</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Flexibility, Winter'!H3*Scenarios!$B$6</f>
-        <v>59.305913878362595</v>
+        <v>62.331111516524146</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Flexibility, Winter'!I3*Scenarios!$B$6</f>
-        <v>59.305913878362595</v>
+        <v>62.331111516524146</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Flexibility, Winter'!J3*Scenarios!$B$6</f>
-        <v>59.305913878362595</v>
+        <v>62.331111516524146</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Flexibility, Winter'!K3*Scenarios!$B$6</f>
-        <v>59.305913878362595</v>
+        <v>62.331111516524146</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Flexibility, Winter'!L3*Scenarios!$B$6</f>
-        <v>59.305913878362595</v>
+        <v>62.331111516524146</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Flexibility, Winter'!M3*Scenarios!$B$6</f>
-        <v>59.305913878362595</v>
+        <v>62.331111516524146</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Flexibility, Winter'!N3*Scenarios!$B$6</f>
-        <v>59.305913878362595</v>
+        <v>62.331111516524146</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Flexibility, Winter'!O3*Scenarios!$B$6</f>
-        <v>59.305913878362595</v>
+        <v>62.331111516524146</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Flexibility, Winter'!P3*Scenarios!$B$6</f>
-        <v>59.305913878362595</v>
+        <v>62.331111516524146</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Flexibility, Winter'!Q3*Scenarios!$B$6</f>
-        <v>59.305913878362595</v>
+        <v>62.331111516524146</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Flexibility, Winter'!R3*Scenarios!$B$6</f>
-        <v>59.305913878362595</v>
+        <v>62.331111516524146</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Flexibility, Winter'!S3*Scenarios!$B$6</f>
-        <v>59.305913878362595</v>
+        <v>62.331111516524146</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Flexibility, Winter'!T3*Scenarios!$B$6</f>
-        <v>59.305913878362595</v>
+        <v>62.331111516524146</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Flexibility, Winter'!U3*Scenarios!$B$6</f>
-        <v>59.305913878362595</v>
+        <v>62.331111516524146</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Flexibility, Winter'!V3*Scenarios!$B$6</f>
-        <v>59.305913878362595</v>
+        <v>62.331111516524146</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Flexibility, Winter'!W3*Scenarios!$B$6</f>
-        <v>59.305913878362595</v>
+        <v>62.331111516524146</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Flexibility, Winter'!X3*Scenarios!$B$6</f>
-        <v>59.305913878362595</v>
+        <v>62.331111516524146</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Flexibility, Winter'!Y3*Scenarios!$B$6</f>
-        <v>59.305913878362595</v>
+        <v>62.331111516524146</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -2139,99 +2138,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Flexibility, Winter'!B4*Scenarios!$B$6</f>
-        <v>70.398710451552418</v>
+        <v>73.989752198661478</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Flexibility, Winter'!C4*Scenarios!$B$6</f>
-        <v>70.398710451552418</v>
+        <v>73.989752198661478</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Flexibility, Winter'!D4*Scenarios!$B$6</f>
-        <v>70.398710451552418</v>
+        <v>73.989752198661478</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Flexibility, Winter'!E4*Scenarios!$B$6</f>
-        <v>70.398710451552418</v>
+        <v>73.989752198661478</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Flexibility, Winter'!F4*Scenarios!$B$6</f>
-        <v>70.398710451552418</v>
+        <v>73.989752198661478</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Flexibility, Winter'!G4*Scenarios!$B$6</f>
-        <v>70.398710451552418</v>
+        <v>73.989752198661478</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Flexibility, Winter'!H4*Scenarios!$B$6</f>
-        <v>70.398710451552418</v>
+        <v>73.989752198661478</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Flexibility, Winter'!I4*Scenarios!$B$6</f>
-        <v>70.398710451552418</v>
+        <v>73.989752198661478</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Flexibility, Winter'!J4*Scenarios!$B$6</f>
-        <v>70.398710451552418</v>
+        <v>73.989752198661478</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Flexibility, Winter'!K4*Scenarios!$B$6</f>
-        <v>70.398710451552418</v>
+        <v>73.989752198661478</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Flexibility, Winter'!L4*Scenarios!$B$6</f>
-        <v>70.398710451552418</v>
+        <v>73.989752198661478</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Flexibility, Winter'!M4*Scenarios!$B$6</f>
-        <v>70.398710451552418</v>
+        <v>73.989752198661478</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Flexibility, Winter'!N4*Scenarios!$B$6</f>
-        <v>70.398710451552418</v>
+        <v>73.989752198661478</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Flexibility, Winter'!O4*Scenarios!$B$6</f>
-        <v>70.398710451552418</v>
+        <v>73.989752198661478</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Flexibility, Winter'!P4*Scenarios!$B$6</f>
-        <v>70.398710451552418</v>
+        <v>73.989752198661478</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Flexibility, Winter'!Q4*Scenarios!$B$6</f>
-        <v>70.398710451552418</v>
+        <v>73.989752198661478</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Flexibility, Winter'!R4*Scenarios!$B$6</f>
-        <v>70.398710451552418</v>
+        <v>73.989752198661478</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Flexibility, Winter'!S4*Scenarios!$B$6</f>
-        <v>70.398710451552418</v>
+        <v>73.989752198661478</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Flexibility, Winter'!T4*Scenarios!$B$6</f>
-        <v>70.398710451552418</v>
+        <v>73.989752198661478</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Flexibility, Winter'!U4*Scenarios!$B$6</f>
-        <v>70.398710451552418</v>
+        <v>73.989752198661478</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Flexibility, Winter'!V4*Scenarios!$B$6</f>
-        <v>70.398710451552418</v>
+        <v>73.989752198661478</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Flexibility, Winter'!W4*Scenarios!$B$6</f>
-        <v>70.398710451552418</v>
+        <v>73.989752198661478</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Flexibility, Winter'!X4*Scenarios!$B$6</f>
-        <v>70.398710451552418</v>
+        <v>73.989752198661478</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Flexibility, Winter'!Y4*Scenarios!$B$6</f>
-        <v>70.398710451552418</v>
+        <v>73.989752198661478</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -2385,99 +2384,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Summer'!B2*Scenarios!$B$6</f>
-        <v>50.23432907445742</v>
+        <v>52.796784717285369</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Summer'!C2*Scenarios!$B$6</f>
-        <v>45.840341610472137</v>
+        <v>48.17865973262343</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Summer'!D2*Scenarios!$B$6</f>
-        <v>43.899439172392761</v>
+        <v>46.138751763938401</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Summer'!E2*Scenarios!$B$6</f>
-        <v>43.104208312346344</v>
+        <v>45.30295613787996</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Summer'!F2*Scenarios!$B$6</f>
-        <v>43.30638564964628</v>
+        <v>45.515446551284647</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Summer'!G2*Scenarios!$B$6</f>
-        <v>49.021265050657796</v>
+        <v>51.521842236857218</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Summer'!H2*Scenarios!$B$6</f>
-        <v>51.096952380270473</v>
+        <v>53.703410481145369</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Summer'!I2*Scenarios!$B$6</f>
-        <v>51.096952380270473</v>
+        <v>53.703410481145369</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Summer'!J2*Scenarios!$B$6</f>
-        <v>53.698300786862994</v>
+        <v>56.437453800285731</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Summer'!K2*Scenarios!$B$6</f>
-        <v>53.833085678396273</v>
+        <v>56.579114075888846</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Summer'!L2*Scenarios!$B$6</f>
-        <v>53.698300786862994</v>
+        <v>56.437453800285731</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Summer'!M2*Scenarios!$B$6</f>
-        <v>53.92743510246958</v>
+        <v>56.67827626881104</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Summer'!N2*Scenarios!$B$6</f>
-        <v>53.159161220729821</v>
+        <v>55.870812697873212</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Summer'!O2*Scenarios!$B$6</f>
-        <v>52.822198991896592</v>
+        <v>55.516662008865396</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Summer'!P2*Scenarios!$B$6</f>
-        <v>51.71696288132361</v>
+        <v>54.355047748919759</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Summer'!Q2*Scenarios!$B$6</f>
-        <v>50.126501161230784</v>
+        <v>52.683456496802862</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Summer'!R2*Scenarios!$B$6</f>
-        <v>47.147755058345055</v>
+        <v>49.552764405973754</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Summer'!S2*Scenarios!$B$6</f>
-        <v>50.369113965990707</v>
+        <v>52.938444992888485</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Summer'!T2*Scenarios!$B$6</f>
-        <v>52.296537914916762</v>
+        <v>54.964186934013199</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Summer'!U2*Scenarios!$B$6</f>
-        <v>53.779171721782959</v>
+        <v>56.522449965647596</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Summer'!V2*Scenarios!$B$6</f>
-        <v>52.620021654596663</v>
+        <v>55.304171595460708</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Summer'!W2*Scenarios!$B$6</f>
-        <v>53.698300786862994</v>
+        <v>56.437453800285731</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Summer'!X2*Scenarios!$B$6</f>
-        <v>53.590472873636351</v>
+        <v>56.324125579803223</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Summer'!Y2*Scenarios!$B$6</f>
-        <v>51.406957630797045</v>
+        <v>54.029229115032571</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -2486,99 +2485,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Summer'!B3*Scenarios!$B$6</f>
-        <v>53.482644960409722</v>
+        <v>56.210797359320722</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Summer'!C3*Scenarios!$B$6</f>
-        <v>47.174712036651719</v>
+        <v>49.581096461094383</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Summer'!D3*Scenarios!$B$6</f>
-        <v>51.487828565717024</v>
+        <v>54.11422528039445</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Summer'!E3*Scenarios!$B$6</f>
-        <v>49.735624975784241</v>
+        <v>52.272641697553794</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Summer'!F3*Scenarios!$B$6</f>
-        <v>50.692597705670607</v>
+        <v>53.278429654335994</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Summer'!G3*Scenarios!$B$6</f>
-        <v>51.487828565717024</v>
+        <v>54.11422528039445</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Summer'!H3*Scenarios!$B$6</f>
-        <v>50.153458139537442</v>
+        <v>52.71178855192349</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Summer'!I3*Scenarios!$B$6</f>
-        <v>54.156569418076174</v>
+        <v>56.919098737336355</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Summer'!J3*Scenarios!$B$6</f>
-        <v>57.741847532861712</v>
+        <v>60.687262068379532</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Summer'!K3*Scenarios!$B$6</f>
-        <v>57.997938826774963</v>
+        <v>60.956416592025469</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Summer'!L3*Scenarios!$B$6</f>
-        <v>58.564035371214786</v>
+        <v>61.551389749558609</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Summer'!M3*Scenarios!$B$6</f>
-        <v>59.669271481787767</v>
+        <v>62.713004009504246</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Summer'!N3*Scenarios!$B$6</f>
-        <v>60.612765722520791</v>
+        <v>63.704625938726132</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Summer'!O3*Scenarios!$B$6</f>
-        <v>62.189748953460295</v>
+        <v>65.362051163282715</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Summer'!P3*Scenarios!$B$6</f>
-        <v>59.831013351627711</v>
+        <v>62.882996340227997</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Summer'!Q3*Scenarios!$B$6</f>
-        <v>57.970981848468298</v>
+        <v>60.928084536904841</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Summer'!R3*Scenarios!$B$6</f>
-        <v>57.768804511168362</v>
+        <v>60.715594123500154</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Summer'!S3*Scenarios!$B$6</f>
-        <v>58.941433067507987</v>
+        <v>61.948038521247355</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Summer'!T3*Scenarios!$B$6</f>
-        <v>59.264916807187888</v>
+        <v>62.288023182694857</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Summer'!U3*Scenarios!$B$6</f>
-        <v>60.518416298447491</v>
+        <v>63.605463745803938</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Summer'!V3*Scenarios!$B$6</f>
-        <v>61.259733201880593</v>
+        <v>64.384595261621143</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Summer'!W3*Scenarios!$B$6</f>
-        <v>62.203227442613624</v>
+        <v>65.376217190843022</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Summer'!X3*Scenarios!$B$6</f>
-        <v>60.612765722520791</v>
+        <v>63.704625938726132</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Summer'!Y3*Scenarios!$B$6</f>
-        <v>57.283578901648518</v>
+        <v>60.2056171313289</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -2587,99 +2586,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Summer'!B4*Scenarios!$B$6</f>
-        <v>45.004675282965742</v>
+        <v>47.300366023884045</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Summer'!C4*Scenarios!$B$6</f>
-        <v>41.540703570560176</v>
+        <v>43.659696940883684</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Summer'!D4*Scenarios!$B$6</f>
-        <v>38.939355163967662</v>
+        <v>40.925653621743336</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Summer'!E4*Scenarios!$B$6</f>
-        <v>38.319344662914524</v>
+        <v>40.274016353968953</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Summer'!F4*Scenarios!$B$6</f>
-        <v>39.640236599940778</v>
+        <v>41.662287054879599</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Summer'!G4*Scenarios!$B$6</f>
-        <v>46.352524198298646</v>
+        <v>48.716968779915312</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Summer'!H4*Scenarios!$B$6</f>
-        <v>60.976684929660685</v>
+        <v>64.087108682854577</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Summer'!I4*Scenarios!$B$6</f>
-        <v>57.849675446088341</v>
+        <v>60.800590288862033</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Summer'!J4*Scenarios!$B$6</f>
-        <v>60.491459320140841</v>
+        <v>63.577131690683316</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Summer'!K4*Scenarios!$B$6</f>
-        <v>59.709706949247746</v>
+        <v>62.755502092185175</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Summer'!L4*Scenarios!$B$6</f>
-        <v>55.342676463569134</v>
+        <v>58.165709162643871</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Summer'!M4*Scenarios!$B$6</f>
-        <v>53.779171721782959</v>
+        <v>56.522449965647596</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Summer'!N4*Scenarios!$B$6</f>
-        <v>59.547965079407803</v>
+        <v>62.585509761461431</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Summer'!O4*Scenarios!$B$6</f>
-        <v>60.895813994740706</v>
+        <v>64.002112517492691</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Summer'!P4*Scenarios!$B$6</f>
-        <v>60.491459320140841</v>
+        <v>63.577131690683316</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Summer'!Q4*Scenarios!$B$6</f>
-        <v>59.777099395014396</v>
+        <v>62.826332229986747</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Summer'!R4*Scenarios!$B$6</f>
-        <v>59.777099395014396</v>
+        <v>62.826332229986747</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Summer'!S4*Scenarios!$B$6</f>
-        <v>60.491459320140841</v>
+        <v>63.577131690683316</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Summer'!T4*Scenarios!$B$6</f>
-        <v>62.24366291007361</v>
+        <v>65.418715273523958</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Summer'!U4*Scenarios!$B$6</f>
-        <v>64.535006066139559</v>
+        <v>67.826939958777118</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Summer'!V4*Scenarios!$B$6</f>
-        <v>68.982907486738142</v>
+        <v>72.501729053680307</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Summer'!W4*Scenarios!$B$6</f>
-        <v>75.061706094889544</v>
+        <v>78.890607483381316</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Summer'!X4*Scenarios!$B$6</f>
-        <v>68.430289431451655</v>
+        <v>71.920921923707496</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Summer'!Y4*Scenarios!$B$6</f>
-        <v>60.653201189980784</v>
+        <v>63.747124021407068</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -2833,99 +2832,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Flexibility, Summer'!B2*Scenarios!$B$6</f>
-        <v>50.64542299363395</v>
+        <v>53.228848557874898</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Flexibility, Summer'!C2*Scenarios!$B$6</f>
-        <v>50.64542299363395</v>
+        <v>53.228848557874898</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Flexibility, Summer'!D2*Scenarios!$B$6</f>
-        <v>50.64542299363395</v>
+        <v>53.228848557874898</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Flexibility, Summer'!E2*Scenarios!$B$6</f>
-        <v>50.64542299363395</v>
+        <v>53.228848557874898</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Flexibility, Summer'!F2*Scenarios!$B$6</f>
-        <v>50.64542299363395</v>
+        <v>53.228848557874898</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Flexibility, Summer'!G2*Scenarios!$B$6</f>
-        <v>50.64542299363395</v>
+        <v>53.228848557874898</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Flexibility, Summer'!H2*Scenarios!$B$6</f>
-        <v>50.64542299363395</v>
+        <v>53.228848557874898</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Flexibility, Summer'!I2*Scenarios!$B$6</f>
-        <v>50.64542299363395</v>
+        <v>53.228848557874898</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Flexibility, Summer'!J2*Scenarios!$B$6</f>
-        <v>50.64542299363395</v>
+        <v>53.228848557874898</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Flexibility, Summer'!K2*Scenarios!$B$6</f>
-        <v>50.64542299363395</v>
+        <v>53.228848557874898</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Flexibility, Summer'!L2*Scenarios!$B$6</f>
-        <v>50.64542299363395</v>
+        <v>53.228848557874898</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Flexibility, Summer'!M2*Scenarios!$B$6</f>
-        <v>50.64542299363395</v>
+        <v>53.228848557874898</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Flexibility, Summer'!N2*Scenarios!$B$6</f>
-        <v>50.64542299363395</v>
+        <v>53.228848557874898</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Flexibility, Summer'!O2*Scenarios!$B$6</f>
-        <v>50.64542299363395</v>
+        <v>53.228848557874898</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Flexibility, Summer'!P2*Scenarios!$B$6</f>
-        <v>50.64542299363395</v>
+        <v>53.228848557874898</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Flexibility, Summer'!Q2*Scenarios!$B$6</f>
-        <v>50.64542299363395</v>
+        <v>53.228848557874898</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Flexibility, Summer'!R2*Scenarios!$B$6</f>
-        <v>50.64542299363395</v>
+        <v>53.228848557874898</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Flexibility, Summer'!S2*Scenarios!$B$6</f>
-        <v>50.64542299363395</v>
+        <v>53.228848557874898</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Flexibility, Summer'!T2*Scenarios!$B$6</f>
-        <v>50.64542299363395</v>
+        <v>53.228848557874898</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Flexibility, Summer'!U2*Scenarios!$B$6</f>
-        <v>50.64542299363395</v>
+        <v>53.228848557874898</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Flexibility, Summer'!V2*Scenarios!$B$6</f>
-        <v>50.64542299363395</v>
+        <v>53.228848557874898</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Flexibility, Summer'!W2*Scenarios!$B$6</f>
-        <v>50.64542299363395</v>
+        <v>53.228848557874898</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Flexibility, Summer'!X2*Scenarios!$B$6</f>
-        <v>50.64542299363395</v>
+        <v>53.228848557874898</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Flexibility, Summer'!Y2*Scenarios!$B$6</f>
-        <v>50.64542299363395</v>
+        <v>53.228848557874898</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -2934,99 +2933,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Flexibility, Summer'!B3*Scenarios!$B$6</f>
-        <v>56.700072642052305</v>
+        <v>59.59234618819702</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Flexibility, Summer'!C3*Scenarios!$B$6</f>
-        <v>56.700072642052305</v>
+        <v>59.59234618819702</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Flexibility, Summer'!D3*Scenarios!$B$6</f>
-        <v>56.700072642052305</v>
+        <v>59.59234618819702</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Flexibility, Summer'!E3*Scenarios!$B$6</f>
-        <v>56.700072642052305</v>
+        <v>59.59234618819702</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Flexibility, Summer'!F3*Scenarios!$B$6</f>
-        <v>56.700072642052305</v>
+        <v>59.59234618819702</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Flexibility, Summer'!G3*Scenarios!$B$6</f>
-        <v>56.700072642052305</v>
+        <v>59.59234618819702</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Flexibility, Summer'!H3*Scenarios!$B$6</f>
-        <v>56.700072642052305</v>
+        <v>59.59234618819702</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Flexibility, Summer'!I3*Scenarios!$B$6</f>
-        <v>56.700072642052305</v>
+        <v>59.59234618819702</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Flexibility, Summer'!J3*Scenarios!$B$6</f>
-        <v>56.700072642052305</v>
+        <v>59.59234618819702</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Flexibility, Summer'!K3*Scenarios!$B$6</f>
-        <v>56.700072642052305</v>
+        <v>59.59234618819702</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Flexibility, Summer'!L3*Scenarios!$B$6</f>
-        <v>56.700072642052305</v>
+        <v>59.59234618819702</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Flexibility, Summer'!M3*Scenarios!$B$6</f>
-        <v>56.700072642052305</v>
+        <v>59.59234618819702</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Flexibility, Summer'!N3*Scenarios!$B$6</f>
-        <v>56.700072642052305</v>
+        <v>59.59234618819702</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Flexibility, Summer'!O3*Scenarios!$B$6</f>
-        <v>56.700072642052305</v>
+        <v>59.59234618819702</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Flexibility, Summer'!P3*Scenarios!$B$6</f>
-        <v>56.700072642052305</v>
+        <v>59.59234618819702</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Flexibility, Summer'!Q3*Scenarios!$B$6</f>
-        <v>56.700072642052305</v>
+        <v>59.59234618819702</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Flexibility, Summer'!R3*Scenarios!$B$6</f>
-        <v>56.700072642052305</v>
+        <v>59.59234618819702</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Flexibility, Summer'!S3*Scenarios!$B$6</f>
-        <v>56.700072642052305</v>
+        <v>59.59234618819702</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Flexibility, Summer'!T3*Scenarios!$B$6</f>
-        <v>56.700072642052305</v>
+        <v>59.59234618819702</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Flexibility, Summer'!U3*Scenarios!$B$6</f>
-        <v>56.700072642052305</v>
+        <v>59.59234618819702</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Flexibility, Summer'!V3*Scenarios!$B$6</f>
-        <v>56.700072642052305</v>
+        <v>59.59234618819702</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Flexibility, Summer'!W3*Scenarios!$B$6</f>
-        <v>56.700072642052305</v>
+        <v>59.59234618819702</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Flexibility, Summer'!X3*Scenarios!$B$6</f>
-        <v>56.700072642052305</v>
+        <v>59.59234618819702</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Flexibility, Summer'!Y3*Scenarios!$B$6</f>
-        <v>56.700072642052305</v>
+        <v>59.59234618819702</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -3035,99 +3034,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Flexibility, Summer'!B4*Scenarios!$B$6</f>
-        <v>56.618078499702889</v>
+        <v>59.50616952053845</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Flexibility, Summer'!C4*Scenarios!$B$6</f>
-        <v>56.618078499702889</v>
+        <v>59.50616952053845</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Flexibility, Summer'!D4*Scenarios!$B$6</f>
-        <v>56.618078499702889</v>
+        <v>59.50616952053845</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Flexibility, Summer'!E4*Scenarios!$B$6</f>
-        <v>56.618078499702889</v>
+        <v>59.50616952053845</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Flexibility, Summer'!F4*Scenarios!$B$6</f>
-        <v>56.618078499702889</v>
+        <v>59.50616952053845</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Flexibility, Summer'!G4*Scenarios!$B$6</f>
-        <v>56.618078499702889</v>
+        <v>59.50616952053845</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Flexibility, Summer'!H4*Scenarios!$B$6</f>
-        <v>56.618078499702889</v>
+        <v>59.50616952053845</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Flexibility, Summer'!I4*Scenarios!$B$6</f>
-        <v>56.618078499702889</v>
+        <v>59.50616952053845</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Flexibility, Summer'!J4*Scenarios!$B$6</f>
-        <v>56.618078499702889</v>
+        <v>59.50616952053845</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Flexibility, Summer'!K4*Scenarios!$B$6</f>
-        <v>56.618078499702889</v>
+        <v>59.50616952053845</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Flexibility, Summer'!L4*Scenarios!$B$6</f>
-        <v>56.618078499702889</v>
+        <v>59.50616952053845</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Flexibility, Summer'!M4*Scenarios!$B$6</f>
-        <v>56.618078499702889</v>
+        <v>59.50616952053845</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Flexibility, Summer'!N4*Scenarios!$B$6</f>
-        <v>56.618078499702889</v>
+        <v>59.50616952053845</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Flexibility, Summer'!O4*Scenarios!$B$6</f>
-        <v>56.618078499702889</v>
+        <v>59.50616952053845</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Flexibility, Summer'!P4*Scenarios!$B$6</f>
-        <v>56.618078499702889</v>
+        <v>59.50616952053845</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Flexibility, Summer'!Q4*Scenarios!$B$6</f>
-        <v>56.618078499702889</v>
+        <v>59.50616952053845</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Flexibility, Summer'!R4*Scenarios!$B$6</f>
-        <v>56.618078499702889</v>
+        <v>59.50616952053845</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Flexibility, Summer'!S4*Scenarios!$B$6</f>
-        <v>56.618078499702889</v>
+        <v>59.50616952053845</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Flexibility, Summer'!T4*Scenarios!$B$6</f>
-        <v>56.618078499702889</v>
+        <v>59.50616952053845</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Flexibility, Summer'!U4*Scenarios!$B$6</f>
-        <v>56.618078499702889</v>
+        <v>59.50616952053845</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Flexibility, Summer'!V4*Scenarios!$B$6</f>
-        <v>56.618078499702889</v>
+        <v>59.50616952053845</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Flexibility, Summer'!W4*Scenarios!$B$6</f>
-        <v>56.618078499702889</v>
+        <v>59.50616952053845</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Flexibility, Summer'!X4*Scenarios!$B$6</f>
-        <v>56.618078499702889</v>
+        <v>59.50616952053845</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Flexibility, Summer'!Y4*Scenarios!$B$6</f>
-        <v>56.618078499702889</v>
+        <v>59.50616952053845</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
